--- a/outputs/ML_Results/dist_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_LR/Potsdam.xlsx
@@ -7,36 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ53490072" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ53648092" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ53808756" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ53972881" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54139590" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ54307214" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ54472236" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ54642503" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ54806740" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ54970869" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ55139890" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ55299403" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ55467955" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ55720283" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ55880300" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ56043319" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ56208831" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ56365855" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ56529371" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ56687390" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ56853929" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ57023573" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ57187706" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ57344725" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ57511235" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ57675342" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ57882385" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ58077412" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ58245539" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ58410052" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ23603103" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ23759568" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ23954879" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ24151174" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ24363321" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ24573365" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ24792742" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ24995431" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ25198882" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ25406729" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ25611764" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ25807079" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ26040615" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ26256372" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ26450246" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ26666152" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ26877313" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ27091504" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ27288308" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ27563708" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ27778626" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ28058547" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ28257650" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ28456288" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ28683445" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ28914000" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ29125567" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ29349923" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ29563949" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ29773984" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_LR/Potsdam.xlsx
@@ -7,36 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ23603103" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ23759568" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ23954879" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ24151174" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ24363321" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ24573365" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ24792742" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ24995431" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ25198882" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ25406729" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ25611764" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ25807079" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ26040615" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ26256372" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ26450246" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ26666152" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ26877313" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ27091504" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ27288308" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ27563708" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ27778626" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ28058547" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ28257650" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ28456288" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ28683445" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ28914000" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ29125567" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ29349923" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ29563949" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ29773984" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ51438189" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51570461" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51702614" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ51843257" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ51977212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ52112911" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52254624" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52396434" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ52546195" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ52683914" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ52862434" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ53005262" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ53145519" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ53288485" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ53426198" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ53568586" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ53709208" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ53849972" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ53987626" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ54163449" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ54322762" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ54474293" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ54617185" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ54771765" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ54910781" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ55148621" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ55286191" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ55422968" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ55565166" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ55705493" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.680672632757842</v>
+        <v>1.681349514153613</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13.62403956788896</v>
+        <v>-13.63196077028263</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-24.87735334727299</v>
+        <v>-24.89251717533051</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8345502217514897</v>
+        <v>0.834730103705339</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0004571462342309034</v>
+        <v>-0.0004569554875543484</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.05430675365051</v>
+        <v>52.05863061667264</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.42993066051306</v>
+        <v>31.4366590255565</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.521809791736587</v>
+        <v>-1.522656592477018</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -575,42 +575,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.108678265495088</v>
+        <v>-1.109443211756551</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.978916052096709</v>
+        <v>-0.2756264011924068</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2754562255371449</v>
+        <v>-73.09573345049176</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-73.05479246836705</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -623,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +644,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.848343870817593</v>
+        <v>-3.848383160623807</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -666,7 +655,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.43144946430425</v>
+        <v>82.43253829002171</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -677,7 +666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.8924463199155</v>
+        <v>251.8958517568991</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -688,7 +677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.466040159913917</v>
+        <v>2.466000822373</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -699,7 +688,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006152896643407861</v>
+        <v>-0.006153005788394014</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -710,7 +699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.96335072341907</v>
+        <v>64.96550582232726</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -721,7 +710,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.57169443606887</v>
+        <v>72.5726749617083</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -732,7 +721,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.245285887292098</v>
+        <v>2.245318913546326</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -743,42 +732,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.096734948446025</v>
+        <v>9.096865863234481</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.113679765161786</v>
+        <v>-1.425994517181972</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.425977589878215</v>
+        <v>-92.71203958610877</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-92.71117430697538</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -791,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +801,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.4432662971704</v>
+        <v>2.445403585617377</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -834,7 +812,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13.97637291869744</v>
+        <v>-13.98862900215779</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -845,7 +823,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-45.75884456696505</v>
+        <v>-45.8100077309733</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -856,7 +834,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.642770881657859</v>
+        <v>-0.6432388293135234</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -867,7 +845,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002499475270904162</v>
+        <v>0.0002509407630924801</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -878,7 +856,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.62345544707057</v>
+        <v>-22.68468170129671</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -889,7 +867,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.1644503662589</v>
+        <v>80.20000948818009</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -900,7 +878,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.817813585408961</v>
+        <v>-1.819494061037485</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -911,42 +889,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.225351777353882</v>
+        <v>-2.227789346556183</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.176036507115127</v>
+        <v>-0.236319818397326</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2360429988354491</v>
+        <v>-57.73399213483167</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-57.67634370251436</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -959,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,7 +958,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.325018348015691</v>
+        <v>-5.325575769836185</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1002,7 +969,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.55937991888112</v>
+        <v>94.56710763192936</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1013,7 +980,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450.441255370031</v>
+        <v>450.4820752125969</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1024,7 +991,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5307699120479956</v>
+        <v>-0.5306133458539588</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1035,7 +1002,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001369591821691557</v>
+        <v>0.001369270690653088</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1046,7 +1013,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.162732210617207</v>
+        <v>4.157807000605146</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1057,7 +1024,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.10154031558212</v>
+        <v>14.10257701937832</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1068,7 +1035,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.778895692964493</v>
+        <v>1.77897001347797</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1079,42 +1046,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.807962852993</v>
+        <v>15.80932995840931</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.389619742235462</v>
+        <v>-2.665729464034732</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.665459290881176</v>
+        <v>-17.87921330643792</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.87184825051833</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1127,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1115,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.213396334254989</v>
+        <v>1.213396391457235</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1170,7 +1126,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.854949559014807</v>
+        <v>2.854949600910603</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1181,7 +1137,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.640895900950889</v>
+        <v>1.640895628936185</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1192,7 +1148,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8145712553456375</v>
+        <v>0.8145724096418774</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1203,7 +1159,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.003028110433305767</v>
+        <v>-0.003028113414281689</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1214,7 +1170,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.59797148287905</v>
+        <v>53.59796974142732</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1225,7 +1181,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.91156496101727</v>
+        <v>22.91157256676626</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1236,7 +1192,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5210348356278676</v>
+        <v>0.5210348359510353</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1247,42 +1203,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6283168786638939</v>
+        <v>0.6283168540139845</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01807811098701914</v>
+        <v>0.2813121628130568</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2813121471468925</v>
+        <v>72.52619575950757</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>72.52619237832231</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1295,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1272,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.069908895580845</v>
+        <v>5.082615964617212</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1338,7 +1283,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.556646989408371</v>
+        <v>-0.5615654751998953</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1349,7 +1294,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-87.41592006888152</v>
+        <v>-87.64945419414948</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1360,7 +1305,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05639297043185332</v>
+        <v>0.05651028117492018</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1371,7 +1316,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001013295429286002</v>
+        <v>-0.001014799657284568</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1382,7 +1327,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.375284865968958</v>
+        <v>-2.389415753843394</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1393,7 +1338,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.36751242146256</v>
+        <v>32.3506000080628</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1404,7 +1349,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4037092949619656</v>
+        <v>-0.4047759855066269</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1415,42 +1360,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.488630180895111</v>
+        <v>-2.495170878277076</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.714499003593936</v>
+        <v>0.3284886399237941</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3277466037005281</v>
+        <v>73.11485463996075</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>72.94114435561016</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1463,7 +1397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,7 +1429,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.7010675238493</v>
+        <v>109.8837683654954</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1506,7 +1440,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-858.8551116572354</v>
+        <v>-860.3620878216009</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1517,7 +1451,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1469.673149813309</v>
+        <v>1471.331969527296</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1528,7 +1462,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1431281805537701</v>
+        <v>0.1486737854178632</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1539,7 +1473,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001558084578010922</v>
+        <v>0.001564936471318038</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1550,7 +1484,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238.3576018387735</v>
+        <v>239.0001488810807</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1561,7 +1495,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.70692915954564</v>
+        <v>78.99682190879668</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1572,7 +1506,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-102.5623515241367</v>
+        <v>-102.7385633038138</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1583,42 +1517,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.1591605913238</v>
+        <v>35.18701064087962</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.73379060431122</v>
+        <v>-32.73573380482163</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-32.68283974466569</v>
+        <v>-413.4004118632636</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-411.516305315301</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1631,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,7 +1586,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.069908895580845</v>
+        <v>5.082615964617212</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1674,7 +1597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.556646989408371</v>
+        <v>-0.5615654751998953</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1685,7 +1608,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-87.41592006888152</v>
+        <v>-87.64945419414948</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1696,7 +1619,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05639297043185332</v>
+        <v>0.05651028117492018</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1707,7 +1630,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001013295429286002</v>
+        <v>-0.001014799657284568</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1718,7 +1641,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.375284865968958</v>
+        <v>-2.389415753843394</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1729,7 +1652,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.36751242146256</v>
+        <v>32.3506000080628</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1740,7 +1663,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4037092949619656</v>
+        <v>-0.4047759855066269</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1751,42 +1674,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.488630180895111</v>
+        <v>-2.495170878277076</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.714499003593936</v>
+        <v>0.3284886399237941</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3277466037005281</v>
+        <v>73.11485463996075</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>72.94114435561016</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1799,7 +1711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1831,7 +1743,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7342471271733109</v>
+        <v>0.7342457431960945</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1842,7 +1754,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.511657766358091</v>
+        <v>8.511683820079661</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1853,7 +1765,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.622932967088005</v>
+        <v>9.622981079129985</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1864,7 +1776,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.00299215982966</v>
+        <v>2.003004533750894</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1875,7 +1787,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006272475378246559</v>
+        <v>-0.006272507897412123</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1886,7 +1798,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.92203437436751</v>
+        <v>-22.92226610390486</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1897,7 +1809,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.97845069378447</v>
+        <v>49.9785869365954</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1908,7 +1820,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.726223011350954</v>
+        <v>0.7262239587855617</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1919,42 +1831,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5728183662061506</v>
+        <v>0.5728190467685725</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1413596983203744</v>
+        <v>0.269631431170096</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2696314689503729</v>
+        <v>90.8967625199117</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>90.89668383639093</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1967,7 +1868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,7 +1900,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.36325049750783</v>
+        <v>20.37756816783126</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2010,7 +1911,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-236.3600290589728</v>
+        <v>-236.5299341595297</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2021,7 +1922,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-313.9085241729462</v>
+        <v>-314.1550276709117</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2032,7 +1933,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5864023448084386</v>
+        <v>0.5872185148438704</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2043,7 +1944,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001811300261944782</v>
+        <v>-0.001811060301938866</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2054,7 +1955,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.40303974078607</v>
+        <v>75.4394643237372</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2065,7 +1966,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.07347311243107</v>
+        <v>16.10051867252142</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2076,7 +1977,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15.11176913848439</v>
+        <v>-15.12407246289665</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2087,42 +1988,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.8291606778889</v>
+        <v>-12.83995605448061</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.53906408969779</v>
+        <v>-0.7093011909765259</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.7081463973736937</v>
+        <v>77.92728140997099</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>78.05878440007194</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2135,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2057,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2648404332726706</v>
+        <v>0.2628345745311442</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2178,7 +2068,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-15.14847634100852</v>
+        <v>-15.17943046457873</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2189,7 +2079,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5351114944872961</v>
+        <v>-0.4927659539268348</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2200,7 +2090,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3273073971360176</v>
+        <v>-0.3269791275883671</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2211,7 +2101,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000515009861421019</v>
+        <v>-0.0005157582627849707</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2222,7 +2112,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.96831921159206</v>
+        <v>-32.94152429233745</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2233,7 +2123,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.88950210909161</v>
+        <v>45.85934378505956</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2244,7 +2134,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4799658582674491</v>
+        <v>-0.4803939397121404</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2255,42 +2145,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3280424748449349</v>
+        <v>-0.3267394996061705</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.586636714085905</v>
+        <v>0.1798507109815961</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1796568264914802</v>
+        <v>59.82164893913011</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>59.74902302229918</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2303,7 +2182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,7 +2214,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6588825510844758</v>
+        <v>0.658882427413374</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2346,7 +2225,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.773614557219446</v>
+        <v>-2.773615115779819</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2357,7 +2236,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8435561672651772</v>
+        <v>-0.8435543175151281</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2368,7 +2247,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.273816842768233</v>
+        <v>-0.2738163954625193</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2379,7 +2258,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0004419002661325288</v>
+        <v>-0.0004419014771841481</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2390,7 +2269,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.23026498297907</v>
+        <v>42.23026168238317</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2401,7 +2280,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.62257236743852</v>
+        <v>40.62258080672893</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2412,7 +2291,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1803291189087108</v>
+        <v>-0.1803292559782821</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2423,42 +2302,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06042697813808268</v>
+        <v>0.06042693051862658</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01096881650911233</v>
+        <v>0.06747092731359661</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06747097958215809</v>
+        <v>6.457818355140148</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.457831196773668</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2471,7 +2339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,7 +2371,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.362300740828701</v>
+        <v>-4.362506641510457</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2514,7 +2382,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.36806288055902</v>
+        <v>88.37166187270347</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2525,7 +2393,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.7217212888432</v>
+        <v>269.7325549594341</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2536,7 +2404,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.401795523832636</v>
+        <v>2.40195532482142</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2547,7 +2415,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00588911046914934</v>
+        <v>-0.005889500845754009</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2558,7 +2426,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.16871727151509</v>
+        <v>53.16824153110007</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2569,7 +2437,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.77107236699484</v>
+        <v>63.77296577777722</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2580,7 +2448,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.788794743868998</v>
+        <v>2.788905257902875</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2591,42 +2459,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.848836109957119</v>
+        <v>9.84921812782987</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.878383266970245</v>
+        <v>-1.369707504611111</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.369648377042951</v>
+        <v>-61.26565827397297</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-61.26260049498291</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2639,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2671,7 +2528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2796449474068972</v>
+        <v>-0.2766408849400861</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2682,7 +2539,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.584463360562633</v>
+        <v>-9.596981121963395</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2693,7 +2550,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.89717770729408</v>
+        <v>22.82413883257351</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2704,7 +2561,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5912583582538702</v>
+        <v>0.591360752164638</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2715,7 +2572,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002025301275906543</v>
+        <v>0.002025502279504968</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2726,7 +2583,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-134.7885169496212</v>
+        <v>-134.8055612727211</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2737,7 +2594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.85991181680919</v>
+        <v>44.86369995308406</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2748,7 +2605,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.304840664352378</v>
+        <v>-2.306010101399611</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2759,42 +2616,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.740016074852206</v>
+        <v>-0.7426329335980055</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.544670674894787</v>
+        <v>-0.943759408847179</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.9437866087468136</v>
+        <v>-121.630106864127</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-121.6180422529851</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2807,7 +2653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2839,7 +2685,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.006299813259293</v>
+        <v>3.00745182993669</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2850,7 +2696,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-36.77372658827982</v>
+        <v>-36.78832077086213</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2861,7 +2707,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-62.74197489942952</v>
+        <v>-62.76870180196771</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2872,7 +2718,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.057468426554852</v>
+        <v>-1.057497401348696</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2883,7 +2729,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000710280876784302</v>
+        <v>0.0007107069179198471</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2894,7 +2740,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-67.98438788410134</v>
+        <v>-67.99580763932359</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2905,7 +2751,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.74552956500503</v>
+        <v>92.76353532714415</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2916,7 +2762,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.108355974694827</v>
+        <v>-3.109766981297661</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2927,42 +2773,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.372834924870811</v>
+        <v>-3.374228586202158</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.696786987546292</v>
+        <v>-0.2950312056941144</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2947956135266516</v>
+        <v>-49.92343089263801</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-49.87129448761308</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2975,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,7 +2842,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7342471271733109</v>
+        <v>0.7342457431960945</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3018,7 +2853,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.511657766358091</v>
+        <v>8.511683820079661</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3029,7 +2864,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.622932967088005</v>
+        <v>9.622981079129985</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3040,7 +2875,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.00299215982966</v>
+        <v>2.003004533750894</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3051,7 +2886,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006272475378246559</v>
+        <v>-0.006272507897412123</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3062,7 +2897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.92203437436751</v>
+        <v>-22.92226610390486</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3073,7 +2908,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.97845069378447</v>
+        <v>49.9785869365954</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3084,7 +2919,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.726223011350954</v>
+        <v>0.7262239587855617</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3095,42 +2930,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5728183662061506</v>
+        <v>0.5728190467685725</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1413596983203744</v>
+        <v>0.269631431170096</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2696314689503729</v>
+        <v>90.8967625199117</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>90.89668383639093</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3143,7 +2967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,7 +2999,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.7782120447044</v>
+        <v>28.91227899216383</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3186,7 +3010,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.3570640479957</v>
+        <v>241.8145701889192</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3197,7 +3021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.8327115252349</v>
+        <v>360.1621361724408</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3208,7 +3032,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1598436881042608</v>
+        <v>0.1608472210046853</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3219,7 +3043,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.004586686206585026</v>
+        <v>-0.004604112461823854</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3230,7 +3054,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-87.5066943321708</v>
+        <v>-87.77500597807806</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3241,7 +3065,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-89.61632257331387</v>
+        <v>-89.97821669512641</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3252,7 +3076,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.894452762475463</v>
+        <v>2.893927280758109</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3263,42 +3087,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.95105479924799</v>
+        <v>18.95029987897884</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.594333590641</v>
+        <v>-3.816946878147865</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.813565395797151</v>
+        <v>662.256758245063</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>659.8907611140249</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3311,7 +3124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3343,7 +3156,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.094486256786649</v>
+        <v>2.09686796752406</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3354,7 +3167,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.989465958753712</v>
+        <v>-3.995463131682335</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3365,7 +3178,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.3447681373089</v>
+        <v>-37.4005485404906</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3376,7 +3189,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1446934488115854</v>
+        <v>-0.1455430610778663</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3387,7 +3200,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0009855711462717874</v>
+        <v>-0.0009836119598913545</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3398,7 +3211,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.87960209559265</v>
+        <v>-25.93417105720937</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3409,7 +3222,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.48545930146292</v>
+        <v>76.52235349175157</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3420,7 +3233,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.066076085972528</v>
+        <v>-1.067637252603317</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3431,42 +3244,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.702414380643532</v>
+        <v>-1.704936092651209</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.979884007511036</v>
+        <v>-0.1200435764807106</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1197170709358257</v>
+        <v>-32.98296813468744</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-32.90615950402582</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3479,7 +3281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3511,7 +3313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.803002038291563</v>
+        <v>2.803157531852992</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3522,7 +3324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.664744600462526</v>
+        <v>4.665553439860013</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3533,7 +3335,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.2449347006137</v>
+        <v>288.2705624587002</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3544,7 +3346,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.678817788773094</v>
+        <v>-2.67886162413695</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3555,7 +3357,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009027963044742549</v>
+        <v>0.0009024169688282371</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3566,7 +3368,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-44.80049346498261</v>
+        <v>-44.81060387315964</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3577,7 +3379,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-46.66019280203787</v>
+        <v>-46.66502791583949</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3588,7 +3390,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4619475755001071</v>
+        <v>-0.4619825929502234</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3599,42 +3401,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.92419476383763</v>
+        <v>10.92513034215301</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.568607510839681</v>
+        <v>-1.148765866404534</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.148653557478775</v>
+        <v>394.7899138688308</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>394.7575095388407</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3647,7 +3438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3679,7 +3470,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.7782120447044</v>
+        <v>28.91227899216383</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3690,7 +3481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.3570640479957</v>
+        <v>241.8145701889192</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3701,7 +3492,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.8327115252349</v>
+        <v>360.1621361724408</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3712,7 +3503,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1598436881042608</v>
+        <v>0.1608472210046853</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3723,7 +3514,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.004586686206585026</v>
+        <v>-0.004604112461823854</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3734,7 +3525,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-87.5066943321708</v>
+        <v>-87.77500597807806</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3745,7 +3536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-89.61632257331387</v>
+        <v>-89.97821669512641</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3756,7 +3547,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.894452762475463</v>
+        <v>2.893927280758109</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3767,42 +3558,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.95105479924799</v>
+        <v>18.95029987897884</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.594333590641</v>
+        <v>-3.816946878147865</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.813565395797151</v>
+        <v>662.256758245063</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>659.8907611140249</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3815,7 +3595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3847,7 +3627,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4506131549728805</v>
+        <v>0.4506132996183717</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3858,7 +3638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.679267805672053</v>
+        <v>3.6792716843753</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3869,7 +3649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.815572111573857</v>
+        <v>4.815573864331313</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3880,7 +3660,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2353825486143877</v>
+        <v>0.235381208224938</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3891,7 +3671,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0004090252623890713</v>
+        <v>-0.0004090224003885016</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3902,7 +3682,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.24840433564356</v>
+        <v>44.24841157015709</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3913,7 +3693,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.87203998082639</v>
+        <v>15.87203290271702</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3924,7 +3704,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2983249215908874</v>
+        <v>0.2983252889773942</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3935,42 +3715,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4793242497481232</v>
+        <v>0.4793245283644911</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02589284675986736</v>
+        <v>0.0999695373936435</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09996944884876779</v>
+        <v>18.6856947578444</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.68567121280481</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3983,7 +3752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4015,7 +3784,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.268002568389043</v>
+        <v>3.272318707646808</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4026,7 +3795,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.971248103778043</v>
+        <v>-3.979999676640205</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4037,7 +3806,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-53.74976317037273</v>
+        <v>-53.83925303658799</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4048,7 +3817,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.351530349903086</v>
+        <v>2.351497380874829</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4059,7 +3828,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.007034543229276412</v>
+        <v>-0.00703426475710815</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4070,7 +3839,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.22130241361385</v>
+        <v>-22.25919584180419</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4081,7 +3850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.52882039567534</v>
+        <v>61.51609650875901</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4092,7 +3861,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4265854228866798</v>
+        <v>-0.427206273854822</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4103,42 +3872,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.737690978007937</v>
+        <v>-1.740452013809509</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.092644176093117</v>
+        <v>0.2700959430260926</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.269801615147964</v>
+        <v>64.76103252724472</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>64.68928480354455</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4151,7 +3909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4183,7 +3941,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.0823078760705</v>
+        <v>64.85441897555307</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4194,7 +3952,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>666.8093822587455</v>
+        <v>673.3095553097511</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4205,7 +3963,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.934756174085</v>
+        <v>463.9712135788503</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4216,7 +3974,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9474323283760222</v>
+        <v>-0.9821200187678065</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4227,7 +3985,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008451456072823349</v>
+        <v>0.0009351434254842284</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4238,7 +3996,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-157.0591503770262</v>
+        <v>-159.7843447472493</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4249,7 +4007,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-140.6150811325487</v>
+        <v>-143.1234889330963</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4260,7 +4018,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.379223013901001</v>
+        <v>9.456611981140171</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4271,42 +4029,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.19983735890601</v>
+        <v>30.42545868015272</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.5564474743754</v>
+        <v>-8.783859022917333</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.703247361372092</v>
+        <v>681.961570128486</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>673.2139212738321</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4319,7 +4066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4351,7 +4098,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.93649167504051</v>
+        <v>10.94285616068795</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4362,7 +4109,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-131.6971624651339</v>
+        <v>-131.7751585596457</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4373,7 +4120,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-208.7365762952219</v>
+        <v>-208.8661858221026</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4384,7 +4131,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.150192253786932</v>
+        <v>-0.1498265269254935</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4395,7 +4142,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0006870736876492798</v>
+        <v>-0.0006867771747092568</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4406,7 +4153,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.25877602393892</v>
+        <v>10.27020635311345</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4417,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.81571366506694</v>
+        <v>50.83638191064065</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4428,7 +4175,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.280803408799756</v>
+        <v>-8.286441527054638</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4439,42 +4186,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.626053870774106</v>
+        <v>-8.631691263166397</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.07753601624516</v>
+        <v>-0.1677216937376922</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1672512136458018</v>
+        <v>20.39204726849056</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.47615230537508</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4487,7 +4223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4519,7 +4255,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.998046009756238</v>
+        <v>2.998129462739111</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4530,7 +4266,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-31.24381829715608</v>
+        <v>-31.24473533092061</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4541,7 +4277,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-24.40164132017774</v>
+        <v>-24.4023501245104</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4552,7 +4288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5719829662330991</v>
+        <v>0.5719126912802819</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4563,7 +4299,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001974137536727654</v>
+        <v>-0.001974145998904666</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4574,7 +4310,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.52321197631437</v>
+        <v>24.52393982145726</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4585,7 +4321,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.608649142938148</v>
+        <v>-4.609423762209033</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4596,7 +4332,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8184553933901655</v>
+        <v>-0.8184787431172765</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4607,42 +4343,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4142412608934545</v>
+        <v>-0.4142520150779861</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.9226519815499545</v>
+        <v>0.4470985364340567</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4470863948363329</v>
+        <v>166.3392089275536</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>166.3344974513691</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4655,7 +4380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4687,7 +4412,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.393226580036233</v>
+        <v>3.396393335818191</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4698,7 +4423,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.854687635384224</v>
+        <v>-3.858322073310496</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4709,7 +4434,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-55.4318842715678</v>
+        <v>-55.49471631395748</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4720,7 +4445,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.775126075444097</v>
+        <v>1.776882263254514</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4731,7 +4456,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.005561286053832177</v>
+        <v>-0.005565623695234459</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4742,7 +4467,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.90479766682046</v>
+        <v>-18.96062524137571</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4753,7 +4478,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.68800954596894</v>
+        <v>52.69738733139506</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4764,7 +4489,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3428127413810971</v>
+        <v>-0.3431837337131698</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4775,42 +4500,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.703974212567685</v>
+        <v>-1.70601222687703</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.139828477659696</v>
+        <v>0.303967575327228</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3037439564446044</v>
+        <v>74.32876685645327</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>74.26420576655177</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4823,7 +4537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4855,7 +4569,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.325018348015691</v>
+        <v>-5.325575769836185</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4866,7 +4580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.55937991888112</v>
+        <v>94.56710763192936</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4877,7 +4591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450.441255370031</v>
+        <v>450.4820752125969</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4888,7 +4602,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5307699120479956</v>
+        <v>-0.5306133458539588</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4899,7 +4613,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001369591821691557</v>
+        <v>0.001369270690653088</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4910,7 +4624,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.162732210617207</v>
+        <v>4.157807000605146</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4921,7 +4635,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.10154031558212</v>
+        <v>14.10257701937832</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4932,7 +4646,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.778895692964493</v>
+        <v>1.77897001347797</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4943,42 +4657,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.807962852993</v>
+        <v>15.80932995840931</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.389619742235462</v>
+        <v>-2.665729464034732</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.665459290881176</v>
+        <v>-17.87921330643792</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.87184825051833</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4991,7 +4694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5023,7 +4726,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.876604527980021</v>
+        <v>0.8789658349713001</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -5034,7 +4737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.806147927428853</v>
+        <v>2.79655682585657</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -5045,7 +4748,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13.03442365338276</v>
+        <v>-13.09194798707108</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -5056,7 +4759,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.687079578685536</v>
+        <v>1.687175310859491</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -5067,7 +4770,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.003945948905480251</v>
+        <v>-0.003945878204174599</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -5078,7 +4781,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-61.93969933605405</v>
+        <v>-61.95195079936207</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -5089,7 +4792,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.38563754570288</v>
+        <v>50.38867387890552</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -5100,7 +4803,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1243392393024791</v>
+        <v>-0.1252204978490603</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -5111,42 +4814,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.7090376321276324</v>
+        <v>-0.7110796044299867</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.205597411311281</v>
+        <v>0.04116524525667423</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04112980150577283</v>
+        <v>25.35929025959962</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.3665851796315</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5159,7 +4851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5191,7 +4883,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.277357345178329</v>
+        <v>4.277389175381323</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -5202,7 +4894,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.10261978253416</v>
+        <v>-45.1030158575832</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -5213,7 +4905,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-40.15131554834515</v>
+        <v>-40.15170553404363</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -5224,7 +4916,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6564706640822431</v>
+        <v>-0.6564526932867625</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -5235,7 +4927,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0007476555499527592</v>
+        <v>-0.0007477211087680367</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -5246,7 +4938,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.65679013728678</v>
+        <v>40.65656492730125</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -5257,7 +4949,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.755613532244965</v>
+        <v>-9.755779280099972</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -5268,7 +4960,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.550962592317971</v>
+        <v>-1.550976961570021</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -5279,42 +4971,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.929473863481832</v>
+        <v>-0.9294865186935963</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5640899940684132</v>
+        <v>0.4670717883833742</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4670682984599743</v>
+        <v>188.6811255083308</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>188.6795776227796</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5327,7 +5008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5359,7 +5040,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.420426383011616</v>
+        <v>4.438285736636729</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -5370,7 +5051,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.275210481882823</v>
+        <v>-8.174538076944202</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -5381,7 +5062,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-74.89086429215172</v>
+        <v>-75.22703510367046</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -5392,7 +5073,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04168698345451394</v>
+        <v>0.04196943477477388</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -5403,7 +5084,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001102711182937397</v>
+        <v>-0.001102580471154237</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -5414,7 +5095,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.466241874777822</v>
+        <v>-4.448127237952242</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -5425,7 +5106,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.44305069025796</v>
+        <v>29.47042645170501</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -5436,7 +5117,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5304483752288762</v>
+        <v>-0.5295007773738343</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -5447,42 +5128,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.169980711206435</v>
+        <v>-2.178962074203412</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.066562516888922</v>
+        <v>0.3626933692778324</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3626333622617826</v>
+        <v>89.2101102422273</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>89.30673447149718</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/ML_Results/dist_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_LR/Potsdam.xlsx
@@ -7,36 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ51438189" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51570461" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51702614" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51843257" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51977212" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ52112911" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52254624" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52396434" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52546195" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ52683914" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ52862434" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53005262" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ53145519" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ53288485" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ53426198" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ53568586" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ53709208" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ53849972" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ53987626" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ54163449" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ54322762" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ54474293" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ54617185" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ54771765" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ54910781" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ55148621" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ55286191" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ55422968" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55565166" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ55705493" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ26261670" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26397965" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26534992" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26680974" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26815046" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26951541" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27095822" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27235853" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27382378" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27545844" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ27784110" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ27968882" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ28167363" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ28350775" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ28517639" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ28664410" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ28811571" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ28951080" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ29083595" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ29327198" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ29466714" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ29604233" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ29744457" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ29882641" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ30029672" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ30168073" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ30309097" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ30448924" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ30594444" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ30732465" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_LR/Potsdam.xlsx
@@ -7,22 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ24762990" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ24988603" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ25214207" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ25432759" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ25662187" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ25872738" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ26081788" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ26316434" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ26532960" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ26753713" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ26971057" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ27184109" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ27415206" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ27773379" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ28033449" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ28255454" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ35559933" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ35708401" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35838510" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ35972027" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36115068" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ36258366" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ36395878" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ36570914" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ36711428" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36855445" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ36998069" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ37122464" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ37289595" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ37421874" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ37556980" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ37709180" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_LR/Potsdam.xlsx
@@ -7,22 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35559933" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35708401" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35838510" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ35972027" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ36115068" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ36258366" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ36395878" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ36570914" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ36711428" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ36855445" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ36998069" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ37122464" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ37289595" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ37421874" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ37556980" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ37709180" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ22613735" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ22934210" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ23129852" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ23314405" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ23513393" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ23707292" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ23899313" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ24098353" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ24281781" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ24477820" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ24670661" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ24859215" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ25055238" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ25250117" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ25446919" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ25638398" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,64 +473,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2843.134409776899</v>
+        <v>-16.3466418381562</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-237.083958376857</v>
+        <v>101.6290427824418</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4082158938486101</v>
+        <v>464.8647586403301</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3504.369375953909</v>
+        <v>-1.770564840157326</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9686.466771467301</v>
+        <v>0.002204005819685326</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2157.623734119928</v>
+        <v>-10.09162652995312</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.350732019112777</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.684406461793341</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.767193834395306</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>148.5169039730828</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -543,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,64 +619,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-287.7151302631735</v>
+        <v>17.91553621654605</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.4717506756922</v>
+        <v>98.50338947470246</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6379870337823356</v>
+        <v>225.7656590995288</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-142.8215504938011</v>
+        <v>-0.0800885630036956</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2743.212521684333</v>
+        <v>-0.002303571032182995</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911.0901581465985</v>
+        <v>-43.13462016082119</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.021249695556056</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>23.65217080718828</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.963345042828113</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>384.4494526483004</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -645,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,64 +765,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7215.978359895371</v>
+        <v>0.6755466666699057</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.2886682940289</v>
+        <v>-3.685129581761998</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3003765636844165</v>
+        <v>5.559288198562541</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1407.105739757074</v>
+        <v>-0.4075739544842087</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69.94656022798318</v>
+        <v>-0.0008319779075767527</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-257.8483124322279</v>
+        <v>79.28637033163648</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4276473753276324</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1338599349578193</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.09209102180547479</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.50261482514372</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -747,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,64 +911,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.809997066876</v>
+        <v>-23.35515518407778</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>805.9283272800863</v>
+        <v>120.9535279866924</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7865074692689696</v>
+        <v>691.244773513664</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.5792045557205</v>
+        <v>1.164187408679912</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2029.471880846806</v>
+        <v>-0.0001225568561237015</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.330481428201892</v>
+        <v>18.93749809574788</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3.983349580660335</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.626180384209851</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-5.361778272801279</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-54.51460111365031</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -849,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,64 +1057,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6999.810031888224</v>
+        <v>0.727347988425052</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.86122448515107</v>
+        <v>9.951158748675425</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06058807738738103</v>
+        <v>16.33967082820664</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1077.493034550684</v>
+        <v>1.606679937669528</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5211.26572435233</v>
+        <v>-0.002302057673151519</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.8963710646826</v>
+        <v>49.69765552151051</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6318594848533792</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.264634083320374</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3022958598097674</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.977976952599647</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -951,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,64 +1203,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5170.672186222691</v>
+        <v>1.4012207757042</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-127.9927438426262</v>
+        <v>10.4555147830777</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4264226616899058</v>
+        <v>-30.16327768735641</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>739.2085973708652</v>
+        <v>2.950871645037834</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1265.970923403313</v>
+        <v>-0.008189883025353444</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-357.2634642188179</v>
+        <v>63.41907586271046</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3313135685327575</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9750948314720516</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1962638657387969</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59.70846709804403</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1053,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,64 +1349,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7438.373873188119</v>
+        <v>0.5819081274348201</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3884768969115</v>
+        <v>0.3293659949347791</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1229019713283936</v>
+        <v>-0.4404229955508683</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.302728789659</v>
+        <v>2.700563536528843</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107.9870221163653</v>
+        <v>-0.006744706394444164</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-866.4513227821631</v>
+        <v>62.86602653130089</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.08134409645651841</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.03180897901770097</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1046071734342287</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12.47917187768448</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1155,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,64 +1495,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635.1263345204552</v>
+        <v>13.0678382307068</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.8930523872017</v>
+        <v>36.35606505389433</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6037803923370459</v>
+        <v>4.005265565001205</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.0765095032066</v>
+        <v>-0.2054598299649553</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.4420277451536</v>
+        <v>-0.001505053183824316</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>902.2757553075085</v>
+        <v>10.28221590350441</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.967741184345083</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10.02317540803261</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.296405562400444</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>216.1162436418847</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1257,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,64 +1641,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6969.909866343896</v>
+        <v>13.98726920374661</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-102.4317873632524</v>
+        <v>71.2816221510148</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01512093698254935</v>
+        <v>-339.8549096066015</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.699707742625</v>
+        <v>-0.241585816167321</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214.6614141600202</v>
+        <v>-0.0001716352947052635</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-125.1109096057676</v>
+        <v>52.21660141790416</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.8285695023891795</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-10.38277661582432</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9111052386231928</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.60905141195813</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1359,7 +1755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,64 +1787,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7172.834792994983</v>
+        <v>0.8096675208180961</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9825643487657</v>
+        <v>-9.520737802883136</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3715081322534799</v>
+        <v>4.519619818569375</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.100361060383</v>
+        <v>-1.289663702117527</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484.2958026619912</v>
+        <v>0.0009160343815277456</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-233.601762689688</v>
+        <v>86.76561454267062</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.8578928773556611</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02088231714730295</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04917960896488012</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-33.50682294427211</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1461,7 +1901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,64 +1933,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-682.557243864298</v>
+        <v>4.782669740640157</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672.1692581886555</v>
+        <v>117.9295909502649</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.279637365872121</v>
+        <v>482.0235278669442</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-222.4148750516583</v>
+        <v>1.684303676485783</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2145.993179401628</v>
+        <v>-0.00575851684356608</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4785941417748</v>
+        <v>-7.069793878113671</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.510868909979138</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24.85249568837585</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.233489048444616</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>275.4366239459206</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1563,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1595,64 +2079,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5621.265987218496</v>
+        <v>-0.1786859752770495</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-176.7132917320832</v>
+        <v>22.88536071576948</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1735524657064071</v>
+        <v>-75.38979865712679</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1199.891975533149</v>
+        <v>3.058734156593015</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1028.719022775822</v>
+        <v>-0.007669846068085143</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>693.8399469642397</v>
+        <v>96.24378299749191</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.294222470504319</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5.239880333162912</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.6241308411860143</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-81.02349411842152</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1665,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,64 +2225,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3243.213759667733</v>
+        <v>38.70991463104995</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.22550484670069</v>
+        <v>140.1341629204391</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06235115457178386</v>
+        <v>525.972221327736</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.0970819333626</v>
+        <v>-3.581331300526792</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5162.862740158851</v>
+        <v>0.002400378986489284</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.6248275586702</v>
+        <v>-54.5295431321673</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.71029757109228</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.00185666876213</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.980001131890873</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>419.0119912594781</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1767,7 +2339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1799,64 +2371,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-682.557243864298</v>
+        <v>4.782669740640157</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672.1692581886555</v>
+        <v>117.9295909502649</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.279637365872121</v>
+        <v>482.0235278669442</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-222.4148750516583</v>
+        <v>1.684303676485783</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2145.993179401628</v>
+        <v>-0.00575851684356608</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4785941417748</v>
+        <v>-7.069793878113671</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.510868909979138</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24.85249568837585</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.233489048444616</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>275.4366239459206</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1869,7 +2485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,64 +2517,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7172.834792994983</v>
+        <v>0.8096675208180961</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9825643487657</v>
+        <v>-9.520737802883136</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3715081322534799</v>
+        <v>4.519619818569375</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.100361060383</v>
+        <v>-1.289663702117527</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484.2958026619912</v>
+        <v>0.0009160343815277456</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-233.601762689688</v>
+        <v>86.76561454267062</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.8578928773556611</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02088231714730295</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04917960896488012</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-33.50682294427211</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1971,7 +2631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,64 +2663,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7281.620477500249</v>
+        <v>0.2199714335759471</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1777.271649763235</v>
+        <v>0.2441524743774832</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2332936159565648</v>
+        <v>-1.623207958551205</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.116811250443</v>
+        <v>2.202095395799647</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1053.50240212147</v>
+        <v>-0.005631285186480366</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2470.555139005141</v>
+        <v>72.66137539150381</v>
       </c>
       <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4234348147594673</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.5095799010855346</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.03287347295006304</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-17.90562589078803</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/ML_Results/dist_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_LR/Potsdam.xlsx
@@ -7,22 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ22613735" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ22934210" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ23129852" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ23314405" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ23513393" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ23707292" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ23899313" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ24098353" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ24281781" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ24477820" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ24670661" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ24859215" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ25055238" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ25250117" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ25446919" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ25638398" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ07624776" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ07946940" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ08108498" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ08271408" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08446844" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ08614451" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ08837791" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09010746" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09174178" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ09345722" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ09492672" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ09632687" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ09784003" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ09933020" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ10080529" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ10233644" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.3466418381562</v>
+        <v>-1.752899609209848</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.6290427824418</v>
+        <v>88.90870726395448</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.8647586403301</v>
+        <v>206.7922120477276</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.770564840157326</v>
+        <v>7.201596233524413</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002204005819685326</v>
+        <v>95.66591369772283</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.09162652995312</v>
+        <v>47.46468118989639</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -539,42 +539,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.350732019112777</v>
+        <v>-116.6174580263385</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.684406461793341</v>
+        <v>-483.6000076484453</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.767193834395306</v>
+        <v>176.1201168725915</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>148.5169039730828</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -587,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +608,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.91553621654605</v>
+        <v>2.621909522021711</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -630,7 +619,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.50338947470246</v>
+        <v>6.424550989641684</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -641,7 +630,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.7656590995288</v>
+        <v>144.7031514401831</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -652,7 +641,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0800885630036956</v>
+        <v>25.24911064849275</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -663,7 +652,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.002303571032182995</v>
+        <v>-17.02964239696564</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -674,7 +663,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.13462016082119</v>
+        <v>5.842997086823338</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -685,42 +674,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.021249695556056</v>
+        <v>118.9688064266481</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.65217080718828</v>
+        <v>161.792236699057</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.963345042828113</v>
+        <v>-24.45865536839455</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>384.4494526483004</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -733,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +743,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6755466666699057</v>
+        <v>1.268048406171763</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -776,7 +754,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.685129581761998</v>
+        <v>0.1251390479198307</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -787,7 +765,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.559288198562541</v>
+        <v>-7.292957773072828</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -798,7 +776,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4075739544842087</v>
+        <v>-66.79180509816628</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -809,7 +787,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0008319779075767527</v>
+        <v>-3.761151997245705</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -820,7 +798,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.28637033163648</v>
+        <v>64.7404883461966</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -831,42 +809,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4276473753276324</v>
+        <v>-33.81311372364871</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1338599349578193</v>
+        <v>26.25104769469115</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09209102180547479</v>
+        <v>13.47789911656901</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-15.50261482514372</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -879,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +878,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-23.35515518407778</v>
+        <v>-12.45064356918185</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -922,7 +889,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.9535279866924</v>
+        <v>76.40531217078076</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -933,7 +900,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.244773513664</v>
+        <v>399.3880701801257</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -944,7 +911,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.164187408679912</v>
+        <v>78.76754208229394</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -955,7 +922,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001225568561237015</v>
+        <v>12.48039325136888</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -966,7 +933,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.93749809574788</v>
+        <v>40.67983629617189</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -977,42 +944,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.983349580660335</v>
+        <v>-115.5760931018005</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.626180384209851</v>
+        <v>-313.272184357385</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.361778272801279</v>
+        <v>71.95177780139004</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-54.51460111365031</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1025,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1013,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.727347988425052</v>
+        <v>4.893557449577667</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1068,7 +1024,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.951158748675425</v>
+        <v>-21.09310554130933</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1079,7 +1035,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.33967082820664</v>
+        <v>-3.440895305762695</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1090,7 +1046,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.606679937669528</v>
+        <v>-34.42546380135661</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1101,7 +1057,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.002302057673151519</v>
+        <v>-14.11624080883003</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1112,7 +1068,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.69765552151051</v>
+        <v>19.57093422438831</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1123,42 +1079,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6318594848533792</v>
+        <v>-28.37263518752741</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.264634083320374</v>
+        <v>137.426614313157</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3022958598097674</v>
+        <v>74.26971701111074</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-2.977976952599647</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1171,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1148,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.4012207757042</v>
+        <v>6.795489780076508</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1214,7 +1159,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.4555147830777</v>
+        <v>12.15395706971486</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1225,7 +1170,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-30.16327768735641</v>
+        <v>-184.9208522765437</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1236,7 +1181,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.950871645037834</v>
+        <v>61.28469199889187</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1247,7 +1192,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.008189883025353444</v>
+        <v>-4.430262393458268</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1258,7 +1203,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.41907586271046</v>
+        <v>-0.6007762912837649</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1269,42 +1214,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3313135685327575</v>
+        <v>-124.368230380377</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.9750948314720516</v>
+        <v>41.4758940089211</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1962638657387969</v>
+        <v>104.61386012865</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>59.70846709804403</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1317,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,7 +1283,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5819081274348201</v>
+        <v>9.435887058560681</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1360,7 +1294,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3293659949347791</v>
+        <v>-55.81850404776445</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1371,7 +1305,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4404229955508683</v>
+        <v>11.86956470199627</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1382,7 +1316,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.700563536528843</v>
+        <v>17.01403129493616</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1393,7 +1327,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006744706394444164</v>
+        <v>-17.52193036324829</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1404,7 +1338,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.86602653130089</v>
+        <v>-32.04913163707455</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1415,42 +1349,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08134409645651841</v>
+        <v>-208.029010593998</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03180897901770097</v>
+        <v>184.680723069852</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1046071734342287</v>
+        <v>202.2728236933749</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12.47917187768448</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1463,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,7 +1418,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.0678382307068</v>
+        <v>1.808511046437401</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1506,7 +1429,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.35606505389433</v>
+        <v>4.234832125518039</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1517,7 +1440,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.005265565001205</v>
+        <v>18.21449463165573</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1528,7 +1451,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2054598299649553</v>
+        <v>-20.76608904960676</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1539,7 +1462,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001505053183824316</v>
+        <v>-5.022777660901184</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1550,7 +1473,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.28221590350441</v>
+        <v>37.55562479342042</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1561,42 +1484,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.967741184345083</v>
+        <v>50.88092704597022</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.02317540803261</v>
+        <v>66.55399699328825</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.296405562400444</v>
+        <v>2.797608877077778</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>216.1162436418847</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1609,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,7 +1553,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.98726920374661</v>
+        <v>13.19317910605694</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1652,7 +1564,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.2816221510148</v>
+        <v>78.79016706368782</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1663,7 +1575,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-339.8549096066015</v>
+        <v>-315.5331098016852</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1674,7 +1586,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.241585816167321</v>
+        <v>-13.65188874060849</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1685,7 +1597,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001716352947052635</v>
+        <v>2.224799474408385</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1696,7 +1608,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.21660141790416</v>
+        <v>38.31323405676574</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1707,42 +1619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8285695023891795</v>
+        <v>-15.72765282036573</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10.38277661582432</v>
+        <v>88.47598135193954</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9111052386231928</v>
+        <v>43.94559561931305</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>57.60905141195813</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1755,7 +1656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,7 +1688,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8096675208180961</v>
+        <v>9.135221474630754</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1798,7 +1699,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.520737802883136</v>
+        <v>-4.755733950338946</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1809,7 +1710,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.519619818569375</v>
+        <v>-148.8646589877337</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1820,7 +1721,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.289663702117527</v>
+        <v>-53.9607611200871</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1831,7 +1732,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009160343815277456</v>
+        <v>39.94529824095792</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1842,7 +1743,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.76561454267062</v>
+        <v>56.4787479607924</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1853,42 +1754,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8578928773556611</v>
+        <v>-85.59749467398552</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02088231714730295</v>
+        <v>-39.29040784320273</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04917960896488012</v>
+        <v>79.56538988689397</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-33.50682294427211</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1901,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,7 +1823,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.782669740640157</v>
+        <v>-8.270360614701795</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1944,7 +1834,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.9295909502649</v>
+        <v>108.4732126351248</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1955,7 +1845,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.0235278669442</v>
+        <v>679.963564261591</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1966,7 +1856,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.684303676485783</v>
+        <v>91.70924861800245</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1977,7 +1867,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00575851684356608</v>
+        <v>-22.02661056872203</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1988,7 +1878,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.069793878113671</v>
+        <v>12.24020106742762</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1999,42 +1889,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.510868909979138</v>
+        <v>-11.21950303057821</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.85249568837585</v>
+        <v>-72.77099390950765</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.233489048444616</v>
+        <v>21.75536331943336</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>275.4366239459206</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2047,7 +1926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,7 +1958,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1786859752770495</v>
+        <v>7.535081220504516</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2090,7 +1969,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.88536071576948</v>
+        <v>-1.111348256046448</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2101,7 +1980,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-75.38979865712679</v>
+        <v>-156.1337789748047</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2112,7 +1991,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.058734156593015</v>
+        <v>-11.94005348194599</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2123,7 +2002,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.007669846068085143</v>
+        <v>-7.902967774402359</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2134,7 +2013,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.24378299749191</v>
+        <v>27.93961051394511</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2145,42 +2024,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.294222470504319</v>
+        <v>-154.4137006577251</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.239880333162912</v>
+        <v>76.23048269841826</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.6241308411860143</v>
+        <v>93.62233541758894</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-81.02349411842152</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2193,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,7 +2093,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.70991463104995</v>
+        <v>85.32481844871958</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2236,7 +2104,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.1341629204391</v>
+        <v>53.79583860129156</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2247,7 +2115,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.972221327736</v>
+        <v>-523.7103713240704</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2258,7 +2126,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.581331300526792</v>
+        <v>-228.9850215361318</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2269,7 +2137,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002400378986489284</v>
+        <v>296.1597350640081</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2280,7 +2148,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-54.5295431321673</v>
+        <v>-42.10707130511398</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2291,42 +2159,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.71029757109228</v>
+        <v>255.7935445645034</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.00185666876213</v>
+        <v>292.8041425980513</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.980001131890873</v>
+        <v>235.3657555471676</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>419.0119912594781</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2339,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,7 +2228,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.782669740640157</v>
+        <v>-8.270360614701795</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2382,7 +2239,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.9295909502649</v>
+        <v>108.4732126351248</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2393,7 +2250,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.0235278669442</v>
+        <v>679.963564261591</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2404,7 +2261,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.684303676485783</v>
+        <v>91.70924861800245</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2415,7 +2272,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00575851684356608</v>
+        <v>-22.02661056872203</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2426,7 +2283,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.069793878113671</v>
+        <v>12.24020106742762</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2437,42 +2294,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.510868909979138</v>
+        <v>-11.21950303057821</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.85249568837585</v>
+        <v>-72.77099390950765</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.233489048444616</v>
+        <v>21.75536331943336</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>275.4366239459206</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2485,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2517,7 +2363,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8096675208180961</v>
+        <v>9.135221474630754</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2528,7 +2374,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.520737802883136</v>
+        <v>-4.755733950338946</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2539,7 +2385,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.519619818569375</v>
+        <v>-148.8646589877337</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2550,7 +2396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.289663702117527</v>
+        <v>-53.9607611200871</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2561,7 +2407,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009160343815277456</v>
+        <v>39.94529824095792</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2572,7 +2418,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.76561454267062</v>
+        <v>56.4787479607924</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2583,42 +2429,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8578928773556611</v>
+        <v>-85.59749467398552</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02088231714730295</v>
+        <v>-39.29040784320273</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04917960896488012</v>
+        <v>79.56538988689397</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-33.50682294427211</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2631,7 +2466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2199714335759471</v>
+        <v>6.289647949668058</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2674,7 +2509,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2441524743774832</v>
+        <v>-34.55529449228194</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2685,7 +2520,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.623207958551205</v>
+        <v>-42.81616638847152</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2696,7 +2531,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.202095395799647</v>
+        <v>-3.847667359997743</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2707,7 +2542,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.005631285186480366</v>
+        <v>-6.739330243869546</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2718,7 +2553,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.66137539150381</v>
+        <v>24.3260218183252</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2729,42 +2564,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4234348147594673</v>
+        <v>-128.968217124032</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5095799010855346</v>
+        <v>108.5070501480943</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03287347295006304</v>
+        <v>74.0475502889708</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-17.90562589078803</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
